--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKEU030-001_AppTransKlaim.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKEU030-001_AppTransKlaim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E556C12F-B909-4038-BE02-35F7414ED748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B018ED1E-3A56-445F-9953-0065D2E07DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,17 +97,17 @@
     <t>Username : 37841;
 Password : bni1234;
 Role : RL09 - Penyelia Settlement;
-Kode Pembayaran : DISK230200179</t>
-  </si>
-  <si>
-    <t>DISK230200179</t>
+Kode Pembayaran : DISK230300012</t>
+  </si>
+  <si>
+    <t>DISK230300012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +132,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -139,12 +140,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -184,9 +179,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -196,9 +188,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -207,6 +196,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,7 +509,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,34 +590,34 @@
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>37841</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>22</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="5" t="s">
@@ -634,18 +626,18 @@
       <c r="M2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="9"/>
+      <c r="P2" s="8"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="2"/>
       <c r="S2" s="3"/>
-      <c r="T2" s="11"/>
+      <c r="T2" s="9"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="13"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
